--- a/MIE350 Data import.xlsx
+++ b/MIE350 Data import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zahir\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Dropbox\University\Year 3\3F\MIE350 - Design and Analysis of Information Systems\Project\MIE350Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E17DD9-8E4D-47EB-A075-B644E24CD06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514A4721-9940-4B18-A542-ABDFC67A43E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video_games" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="222">
   <si>
     <t>Super Mario Odyssey</t>
   </si>
@@ -669,16 +669,48 @@
   </si>
   <si>
     <t>techie@comcast.net</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Console</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Release_Date</t>
+  </si>
+  <si>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>Consumer_Rating</t>
+  </si>
+  <si>
+    <t>ESRB_Rating</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Max_Players</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="166" formatCode="hh:mm"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -757,29 +789,233 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -790,6 +1026,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6D04670-FF85-4C72-A279-1207C4AE2208}" name="Table1" displayName="Table1" ref="A1:K21" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:K21" xr:uid="{64C99CD8-8F73-4AF1-8C88-49FBB0E1F7C3}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{3942920C-0B16-4A93-8F94-4F88D5EEE647}" name="UPC" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{54C084C1-0165-4848-8070-A36076F1FB12}" name="Title" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{FE526B94-BD66-4984-A443-2A7514CFC30B}" name="Developer" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{086A04FE-945C-40B2-A4C1-BCA43F4425A7}" name="Console" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{03E24877-D928-4354-98AB-FA1DCD1F60D1}" name="Genre" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DE1A730D-E6E5-44A2-872D-A4792C0EAF16}" name="Release_Date" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{3A342EC6-80C1-42E4-8CF4-CEF1CB954027}" name="Consumer_Rating"/>
+    <tableColumn id="8" xr3:uid="{3F488593-1DB6-407B-A6B3-761443AB8C0F}" name="ESRB_Rating" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{0ED7A100-E064-47C0-9E04-59C291F39908}" name="Price" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{084B7F2C-CA25-4777-9B82-E45D99F2CAE6}" name="Description" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{4F826A71-2188-4ACF-A09A-2668F88DDACE}" name="Max_Players" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,58 +1311,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="17.40625" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+    <col min="10" max="10" width="255.58984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.2265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1">
-        <v>45496590741</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3">
-        <v>43034</v>
-      </c>
-      <c r="G1">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2">
-        <v>59.99</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>45496590420</v>
+        <v>45496590741</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1115,57 +1379,57 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4">
-        <v>42797</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43034</v>
+      </c>
+      <c r="G2">
+        <v>2.6666666666666665</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>79.989999999999995</v>
+        <v>59.99</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>45496593858</v>
+        <v>45496590420</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4">
-        <v>43672</v>
-      </c>
-      <c r="G3">
-        <v>2.3333333333333335</v>
+        <v>42797</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2">
         <v>79.989999999999995</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1173,45 +1437,45 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>45496596484</v>
+        <v>45496593858</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4">
-        <v>43644</v>
+        <v>43672</v>
       </c>
       <c r="G4">
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2">
-        <v>59.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>4549659655</v>
+        <v>45496596484</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1220,10 +1484,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>43728</v>
+        <v>43644</v>
       </c>
       <c r="G5">
         <v>2.6666666666666665</v>
@@ -1232,24 +1496,24 @@
         <v>15</v>
       </c>
       <c r="I5" s="2">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
+        <v>59.99</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
+      <c r="A6" s="1">
+        <v>4549659655</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
@@ -1258,89 +1522,89 @@
         <v>7</v>
       </c>
       <c r="F6" s="4">
-        <v>43441</v>
+        <v>43728</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2">
         <v>79.989999999999995</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="12">
+        <v>45496422899</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43441</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>21112248920</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
-        <v>41309</v>
-      </c>
-      <c r="G7">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="2">
-        <v>39.99</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>45496901998</v>
+        <v>21112248920</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4">
-        <v>40465</v>
+        <v>41309</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2">
-        <v>19.989999999999998</v>
+        <v>39.99</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -1348,13 +1612,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>45496742805</v>
+        <v>45496901998</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>24</v>
@@ -1363,19 +1627,19 @@
         <v>7</v>
       </c>
       <c r="F9" s="4">
-        <v>42048</v>
+        <v>40465</v>
       </c>
       <c r="G9">
-        <v>3.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <v>19.989999999999998</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -1383,10 +1647,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>45496741747</v>
+        <v>45496742805</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -1395,106 +1659,106 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4">
-        <v>40880</v>
+        <v>42048</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
-        <v>34.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
+      <c r="A11" s="1">
+        <v>45496741747</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4">
+        <v>40880</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2">
+        <v>34.99</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13">
+        <v>45496743888</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>42601</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I12" s="2">
         <v>39.99</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K12" s="2">
         <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>730865020102</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4">
-        <v>42628</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="2">
-        <v>26.99</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>810023033219</v>
+        <v>730865020102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
@@ -1503,124 +1767,124 @@
         <v>11</v>
       </c>
       <c r="F13" s="4">
-        <v>43760</v>
+        <v>42628</v>
       </c>
       <c r="G13">
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2">
-        <v>69.989999999999995</v>
+        <v>26.99</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="6" t="s">
-        <v>47</v>
+      <c r="A14" s="1">
+        <v>810023033219</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="3">
-        <v>43056</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="4">
+        <v>43760</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="2">
-        <v>39.99</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>51</v>
+        <v>69.989999999999995</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>52</v>
+      <c r="A15" s="12">
+        <v>14633738179</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3">
+        <v>43056</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>43494</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>2.3333333333333335</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
         <v>49.99</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>71042559529</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="4">
-        <v>43714</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="2">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -1628,146 +1892,184 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
+        <v>71042559529</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="4">
+        <v>43714</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
         <v>730865200009</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3">
-        <v>41233</v>
-      </c>
-      <c r="G17">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="2">
-        <v>49.99</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="4">
-        <v>40855</v>
+        <v>11</v>
+      </c>
+      <c r="F18" s="3">
+        <v>41233</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I18" s="2">
-        <v>34.99</v>
+        <v>49.99</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
+      <c r="A19" s="13">
+        <v>83717202394</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="3">
-        <v>41212</v>
+        <v>67</v>
+      </c>
+      <c r="F19" s="4">
+        <v>40855</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2">
-        <v>19.989999999999998</v>
+        <v>34.99</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K19" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>73</v>
+      <c r="A20" s="13">
+        <v>14633354522</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3">
+        <v>41212</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>41226</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>3.6666666666666665</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I21" s="2">
         <v>14.99</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K21" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1779,9 +2081,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.6796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1802,7 +2104,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1831,7 +2133,7 @@
       <c r="D3" s="2">
         <v>74.989999999999995</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1848,12 +2150,12 @@
       <c r="D4" s="2">
         <v>15.99</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1882,7 +2184,7 @@
       <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2">
@@ -1903,10 +2205,10 @@
       <c r="F1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="9">
         <v>0.875</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1935,10 +2237,10 @@
       <c r="F2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>0.875</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1967,10 +2269,10 @@
       <c r="F3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0.875</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1990,7 +2292,7 @@
       <c r="C4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1999,10 +2301,10 @@
       <c r="F4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>0.875</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2031,10 +2333,10 @@
       <c r="F5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>0.875</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -2057,7 +2359,7 @@
       <selection sqref="A1:C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -3447,16 +3749,16 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3464,10 +3766,10 @@
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3475,10 +3777,10 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3486,10 +3788,10 @@
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3497,7 +3799,7 @@
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3521,13 +3823,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA24116A-5080-4446-86D9-C3C34E0AD602}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C61" sqref="C61:C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.6796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/MIE350 Data import.xlsx
+++ b/MIE350 Data import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Dropbox\University\Year 3\3F\MIE350 - Design and Analysis of Information Systems\Project\MIE350Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kait L\Documents\GitHub\MIE350Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514A4721-9940-4B18-A542-ABDFC67A43E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B5270F-164C-41C9-8B30-C6BCB9E8D38A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video_games" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="248">
   <si>
     <t>Super Mario Odyssey</t>
   </si>
@@ -702,6 +702,84 @@
   </si>
   <si>
     <t>Max_Players</t>
+  </si>
+  <si>
+    <t>Image File Name</t>
+  </si>
+  <si>
+    <t>Switch_SuperMarioOdyssey.jpg</t>
+  </si>
+  <si>
+    <t>Switch_BreathOfTheWild.jpg</t>
+  </si>
+  <si>
+    <t>Switch_ThreeHouses.jpg</t>
+  </si>
+  <si>
+    <t>Switch_SuperMarioMaker2.jpg</t>
+  </si>
+  <si>
+    <t>Switch_LinksAwakening.jpg</t>
+  </si>
+  <si>
+    <t>Switch_SuperSmashBrosUltimate.jpg</t>
+  </si>
+  <si>
+    <t>3ds_Awakening.jpg</t>
+  </si>
+  <si>
+    <t>3ds_KirbysEpicYarn.jpg</t>
+  </si>
+  <si>
+    <t>3ds_MajorasMask3D.jpg</t>
+  </si>
+  <si>
+    <t>3ds_MarioKart7.jpg</t>
+  </si>
+  <si>
+    <t>3ds_FederationForce.jpg</t>
+  </si>
+  <si>
+    <t>Ps4_Persona5.jpg</t>
+  </si>
+  <si>
+    <t>Ps4_TrailsOfColdSteel3.jpg</t>
+  </si>
+  <si>
+    <t>Ps4_TheSims4.jpg</t>
+  </si>
+  <si>
+    <t>Ps4_KingdomHearts3.jpg</t>
+  </si>
+  <si>
+    <t>Xbox_Nba2k20.jpg</t>
+  </si>
+  <si>
+    <t>Psvita_Persona4Golden.jpg</t>
+  </si>
+  <si>
+    <t>Psvita_MetalGearSolid.jpg</t>
+  </si>
+  <si>
+    <t>Psvita_MostWanted.jpg</t>
+  </si>
+  <si>
+    <t>Psvita_BlackOpsDeclassified.jpg</t>
+  </si>
+  <si>
+    <t>Accessory_Psvita.jpg</t>
+  </si>
+  <si>
+    <t>Accessory_3ds.jpg</t>
+  </si>
+  <si>
+    <t>Accessory_Xbox.jpg</t>
+  </si>
+  <si>
+    <t>Accessory_Switch.jpg</t>
+  </si>
+  <si>
+    <t>Accessory_Ps4.jpg</t>
   </si>
 </sst>
 </file>
@@ -777,7 +855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -785,11 +863,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -810,29 +903,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1015,6 +1093,24 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1029,20 +1125,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6D04670-FF85-4C72-A279-1207C4AE2208}" name="Table1" displayName="Table1" ref="A1:K21" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:K21" xr:uid="{64C99CD8-8F73-4AF1-8C88-49FBB0E1F7C3}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3942920C-0B16-4A93-8F94-4F88D5EEE647}" name="UPC" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{54C084C1-0165-4848-8070-A36076F1FB12}" name="Title" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{FE526B94-BD66-4984-A443-2A7514CFC30B}" name="Developer" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{086A04FE-945C-40B2-A4C1-BCA43F4425A7}" name="Console" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{03E24877-D928-4354-98AB-FA1DCD1F60D1}" name="Genre" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{DE1A730D-E6E5-44A2-872D-A4792C0EAF16}" name="Release_Date" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6D04670-FF85-4C72-A279-1207C4AE2208}" name="Table1" displayName="Table1" ref="A1:L21" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="A1:L21" xr:uid="{64C99CD8-8F73-4AF1-8C88-49FBB0E1F7C3}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{3942920C-0B16-4A93-8F94-4F88D5EEE647}" name="UPC" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{54C084C1-0165-4848-8070-A36076F1FB12}" name="Title" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{FE526B94-BD66-4984-A443-2A7514CFC30B}" name="Developer" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{086A04FE-945C-40B2-A4C1-BCA43F4425A7}" name="Console" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{03E24877-D928-4354-98AB-FA1DCD1F60D1}" name="Genre" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{DE1A730D-E6E5-44A2-872D-A4792C0EAF16}" name="Release_Date" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{3A342EC6-80C1-42E4-8CF4-CEF1CB954027}" name="Consumer_Rating"/>
-    <tableColumn id="8" xr3:uid="{3F488593-1DB6-407B-A6B3-761443AB8C0F}" name="ESRB_Rating" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{0ED7A100-E064-47C0-9E04-59C291F39908}" name="Price" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{084B7F2C-CA25-4777-9B82-E45D99F2CAE6}" name="Description" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{4F826A71-2188-4ACF-A09A-2668F88DDACE}" name="Max_Players" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{3F488593-1DB6-407B-A6B3-761443AB8C0F}" name="ESRB_Rating" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{0ED7A100-E064-47C0-9E04-59C291F39908}" name="Price" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{084B7F2C-CA25-4777-9B82-E45D99F2CAE6}" name="Description" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{4F826A71-2188-4ACF-A09A-2668F88DDACE}" name="Max_Players" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{374F5240-3EC5-4547-AD0A-AF81131E1230}" name="Image File Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1311,26 +1408,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
-    <col min="7" max="7" width="17.40625" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" customWidth="1"/>
-    <col min="10" max="10" width="255.58984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.2265625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="64.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>216</v>
       </c>
@@ -1364,8 +1463,11 @@
       <c r="K1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="1">
         <v>45496590741</v>
       </c>
@@ -1399,8 +1501,11 @@
       <c r="K2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="1">
         <v>45496590420</v>
       </c>
@@ -1434,8 +1539,11 @@
       <c r="K3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="1">
         <v>45496593858</v>
       </c>
@@ -1469,8 +1577,11 @@
       <c r="K4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="1">
         <v>45496596484</v>
       </c>
@@ -1504,8 +1615,11 @@
       <c r="K5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="1">
         <v>4549659655</v>
       </c>
@@ -1539,8 +1653,11 @@
       <c r="K6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="12">
         <v>45496422899</v>
       </c>
@@ -1574,8 +1691,11 @@
       <c r="K7" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="1">
         <v>21112248920</v>
       </c>
@@ -1609,8 +1729,11 @@
       <c r="K8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="1">
         <v>45496901998</v>
       </c>
@@ -1644,8 +1767,11 @@
       <c r="K9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="1">
         <v>45496742805</v>
       </c>
@@ -1679,8 +1805,11 @@
       <c r="K10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="1">
         <v>45496741747</v>
       </c>
@@ -1714,8 +1843,11 @@
       <c r="K11" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="13">
         <v>45496743888</v>
       </c>
@@ -1749,8 +1881,11 @@
       <c r="K12" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="1">
         <v>730865020102</v>
       </c>
@@ -1784,8 +1919,11 @@
       <c r="K13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="A14" s="1">
         <v>810023033219</v>
       </c>
@@ -1819,8 +1957,11 @@
       <c r="K14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="12">
         <v>14633738179</v>
       </c>
@@ -1854,8 +1995,11 @@
       <c r="K15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -1889,8 +2033,11 @@
       <c r="K16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="1">
         <v>71042559529</v>
       </c>
@@ -1924,8 +2071,11 @@
       <c r="K17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="1">
         <v>730865200009</v>
       </c>
@@ -1959,8 +2109,11 @@
       <c r="K18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="13">
         <v>83717202394</v>
       </c>
@@ -1994,8 +2147,11 @@
       <c r="K19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="13">
         <v>14633354522</v>
       </c>
@@ -2029,8 +2185,11 @@
       <c r="K20" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -2064,29 +2223,36 @@
       <c r="K21" s="2">
         <v>4</v>
       </c>
+      <c r="L21" s="14" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8109F163-36B7-476B-AE41-C30DA12AB517}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.6796875" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
@@ -2102,8 +2268,11 @@
       <c r="E1" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
@@ -2119,8 +2288,11 @@
       <c r="E2" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>711719504405</v>
       </c>
@@ -2136,8 +2308,11 @@
       <c r="E3" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -2153,8 +2328,11 @@
       <c r="E4" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>88</v>
       </c>
@@ -2169,6 +2347,9 @@
       </c>
       <c r="E5" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2365,7 @@
       <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2">
@@ -2359,7 +2540,7 @@
       <selection sqref="A1:C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -3749,7 +3930,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
@@ -3827,9 +4008,9 @@
       <selection activeCell="C61" sqref="C61:C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.6796875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
